--- a/Example feedback.xlsx
+++ b/Example feedback.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="219">
   <si>
     <t>What’s your first name?</t>
   </si>
@@ -619,9 +619,6 @@
     <t>shafee and all my class mates !!!</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Naeem</t>
   </si>
   <si>
@@ -653,6 +650,24 @@
   </si>
   <si>
     <t>ayman and rest of class</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>example1991@gmail.com</t>
+  </si>
+  <si>
+    <t>Express.js</t>
+  </si>
+  <si>
+    <t>Watch tutorials</t>
+  </si>
+  <si>
+    <t>it was very helpful</t>
+  </si>
+  <si>
+    <t>good lesson</t>
   </si>
 </sst>
 </file>
@@ -662,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm am/pm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -682,9 +697,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -720,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -759,12 +771,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,7 +1835,7 @@
       <c r="S11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="T11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="U11" s="3" t="s">
@@ -1864,7 +1870,7 @@
       <c r="B12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -2007,7 +2013,7 @@
       <c r="U13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="V13" s="10" t="s">
+      <c r="V13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="W13" s="3" t="s">
@@ -2019,8 +2025,8 @@
       <c r="Y13" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Z13" s="3" t="s">
-        <v>63</v>
+      <c r="Z13" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="AA13" s="12">
         <v>0.09375</v>
@@ -2048,7 +2054,7 @@
       <c r="F14" s="3">
         <v>4.0</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="3" t="s">
         <v>182</v>
       </c>
       <c r="H14" s="3">
@@ -2072,7 +2078,7 @@
       <c r="N14" s="3">
         <v>3.0</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="O14" s="3" t="s">
         <v>186</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -2090,7 +2096,7 @@
       <c r="T14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="V14" s="3" t="s">
@@ -2116,7 +2122,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2128,7 +2134,7 @@
       <c r="D15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F15" s="3">
@@ -2179,7 +2185,7 @@
       <c r="U15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="V15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="W15" s="3" t="s">
@@ -2192,7 +2198,7 @@
         <v>201</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="AA15" s="9">
         <v>0.4</v>
@@ -2203,37 +2209,37 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H16" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="L16" s="3">
         <v>5.0</v>
@@ -2245,43 +2251,123 @@
         <v>4.0</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="P16" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="X16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Y16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>202</v>
+      <c r="Z16" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="AA16" s="9">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0.48194444444444445</v>
       </c>
     </row>
   </sheetData>
